--- a/translations/translations.xlsx
+++ b/translations/translations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/90320473a3d91f65/R Projects/Beleggersprofiel/shiny_vertaler/translations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="630" documentId="14_{95F18E7A-428B-7149-8369-8E45DCD25567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F89CCC7-4D82-054C-9BC7-D26B6F7E4FEB}"/>
+  <xr:revisionPtr revIDLastSave="680" documentId="14_{95F18E7A-428B-7149-8369-8E45DCD25567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D91CFEED-8876-D54F-970B-51BB162655A1}"/>
   <bookViews>
-    <workbookView xWindow="2180" yWindow="1280" windowWidth="28060" windowHeight="17460" xr2:uid="{6F392907-AA0D-244D-BA14-28BCC8428C40}"/>
+    <workbookView xWindow="2180" yWindow="1300" windowWidth="28060" windowHeight="17460" xr2:uid="{6F392907-AA0D-244D-BA14-28BCC8428C40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="663">
   <si>
     <t>key</t>
   </si>
@@ -882,15 +882,9 @@
     <t>rapport_maken_en_versturen</t>
   </si>
   <si>
-    <t>Als u op onderstaande knop klikt, wordt een rapport gegenereerd met als titel 'Beleggersprofiel', gevolgd door uw naam, en het tijdstip. Het bestand wordt naar uw email-adres(-sen) gestuurd. Ook komt het terecht in uw 'Downloads' folder. Van daar kunt u het openen of verplaatsten naar een geschikte plek op uw computer. Tevens wordt een overzicht met de resultaten naar B.A. van Doorn gestuurd.</t>
-  </si>
-  <si>
     <t>als_u_op_onderstaande_knop_klikt</t>
   </si>
   <si>
-    <t>If you click on the button below, a report will be generated with the title 'Investor profile', followed by your name, and the time. The file will be sent to your email address(es). It will also end up in your 'Downloads' folder. From there, you can open it or move it to a convenient place on your computer. An overview of the results will also be sent to B.A. van Doorn.</t>
-  </si>
-  <si>
     <t>rapport</t>
   </si>
   <si>
@@ -1278,9 +1272,6 @@
     <t>bij_de_projectie_van_de_waarde</t>
   </si>
   <si>
-    <t>The projection of the value development of your assets uses return and risk figures. B.A. van Doorn is in line with the figures as stated in the advice of the Parameters Committee of the Ministry of Social Affairs and Employment. An attempt has been made to show what realistic scenarios can be on that basis. The European Central Bank aims for an inflation rate of 2%. The amounts shown are nominal and therefore do not take inflation into account. Figures should be interpreted as estimates. They are no guarantee for the future. The future can turn out better or worse than the extremes in the simulation. Costs have not been taken into account.</t>
-  </si>
-  <si>
     <t>In de figuur hieronder een illustratie van het driejaars risico en rendement behorende bij het profiel</t>
   </si>
   <si>
@@ -1515,15 +1506,9 @@
     <t xml:space="preserve">kan volgen. De einddatum (uw </t>
   </si>
   <si>
-    <t xml:space="preserve">can follow. The end date (your </t>
-  </si>
-  <si>
     <t>"favorable" means better than 95% of cases, "unfavorable" worse than 95% of cases.</t>
   </si>
   <si>
-    <t>-year investment horizon) is represented by a vertical line. The favorable, the unfavorable and the moderate scenarios are the same as in the previous illustration. The difference is that they are shown here as a value development over time. This shows that although a loss of capital is not likely in the long term, it is a possibility. The 2% inflation per year, as pursued by the ECB, is represented by a blue line.</t>
-  </si>
-  <si>
     <t>These projections of the value of your assets in relation to your investment objective will be the subject of discussion with your asset manager.</t>
   </si>
   <si>
@@ -1566,9 +1551,6 @@
     <t>The scenarios are based on historical experience. A value of 2.5% was used for the expected yield of Dutch government bonds, 5.4% for the return of global equities, with a risk of 4% and 14% respectively and a slightly negative correlation of -0.2. An attempt has been made to show what realistic scenarios can be on that basis. The European Central Bank aims for an inflation rate of 2%. The amounts shown are nominal and therefore do not take inflation into account. Figures should be interpreted as estimates. They are no guarantee for the future. The future can turn out better or worse than the extremes in the simulation. Costs have not been taken into account.</t>
   </si>
   <si>
-    <t xml:space="preserve">Below are the projections of the value of your investments over time, up to your investment horizon. The initial capital and the chosen profile are the starting points. Based on the same simulation, the projections show a thousand paths the value of the capital </t>
-  </si>
-  <si>
     <t>The illustration on the left</t>
   </si>
   <si>
@@ -1836,9 +1818,6 @@
     <t>profiel_obv_financiele_situatie</t>
   </si>
   <si>
-    <t>Profiel o.b.v. financiele situatie</t>
-  </si>
-  <si>
     <t>Profiel o.b.v. kennis en ervaring</t>
   </si>
   <si>
@@ -1993,6 +1972,60 @@
   </si>
   <si>
     <t>deze_kunt_u_sturen_naar_uw_vermogensbeheerder</t>
+  </si>
+  <si>
+    <t>Profiel o.b.v. financiële situatie</t>
+  </si>
+  <si>
+    <t>het_maken_en_versturen_kan_even_duren</t>
+  </si>
+  <si>
+    <t>annuleren</t>
+  </si>
+  <si>
+    <t>cancel</t>
+  </si>
+  <si>
+    <t>The projection of the value development of your assets uses return and risk figures. B.A. van Doorn is in line with the figures as stated in the advice of the Parameters Committee of the Dutch Ministry of Social Affairs and Employment. An attempt has been made to show what realistic scenarios can be on that basis. The European Central Bank aims for an inflation rate of 2%. The amounts shown are nominal and therefore do not take inflation into account. Figures should be interpreted as estimates. They are no guarantee for the future. The future can turn out better or worse than the extremes in the simulation. Costs have not been taken into account.</t>
+  </si>
+  <si>
+    <t>-year investment horizon) is represented by a vertical line. The favorable, the unfavorable and the moderate scenarios are the same as in the previous illustration. The difference is that they are shown here as a value development over time. This shows that although a loss of capital is not likely in the long term, it is a possibility. The 2% inflation per year, as targeted by the ECB, is represented by a blue line.</t>
+  </si>
+  <si>
+    <t>Below are the projections of the value of your investments over time, up to your investment horizon. The initial capital and the chosen profile are the starting points. Based on the same simulation, the projections show a thousand paths the value of the capital</t>
+  </si>
+  <si>
+    <t>can follow. The end date (your</t>
+  </si>
+  <si>
+    <t>tabel - vervolg van vorige pagina</t>
+  </si>
+  <si>
+    <t>table - continued from previous page</t>
+  </si>
+  <si>
+    <t>tablel_vervolg_van_vorige_pagina</t>
+  </si>
+  <si>
+    <t>even_geduld</t>
+  </si>
+  <si>
+    <t>Even geduld</t>
+  </si>
+  <si>
+    <t>One moment please</t>
+  </si>
+  <si>
+    <t>Als u op onderstaande knop klikt, wordt een rapport gegenereerd met als titel 'Beleggersprofiel', gevolgd door uw naam, en het tijdstip. Het bestand wordt naar uw email-adres(-sen) gestuurd. Ook kunt u het opslaan  op uw computer, bijvoorbeeld in uw 'Downloads' folder. Van daar kunt u het openen of verplaatsten naar een geschikte plek op uw computer. Tevens wordt een overzicht met de resultaten naar B.A. van Doorn gestuurd.</t>
+  </si>
+  <si>
+    <t>If you click on the button below, a report will be generated with the title 'Investor profile', followed by your name, and the time. The file will be sent to your email address(es). You can also save it on your computer, for example in  your 'Downloads' folder. From there, you can open it or move it to a convenient place on your computer. An overview of the results will also be sent to B.A. van Doorn.</t>
+  </si>
+  <si>
+    <t>Het maken en het versturen van het rapport duurt even. Als het rapport is gegenereerd heeft u de modelijkheid het op te slaan op uw computer.</t>
+  </si>
+  <si>
+    <t>Creating and sending the report takes a while. Once the report is generated you can save it on your computer.</t>
   </si>
 </sst>
 </file>
@@ -2567,10 +2600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F664C5-EA11-7741-9542-632F88E8211B}">
-  <dimension ref="A1:C226"/>
+  <dimension ref="A1:C230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
-      <selection activeCell="A226" sqref="A226"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2632,7 +2665,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2643,7 +2676,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.2">
@@ -2665,7 +2698,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2687,7 +2720,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="23" x14ac:dyDescent="0.25">
@@ -2698,7 +2731,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2709,7 +2742,7 @@
         <v>95</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2731,7 +2764,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2742,7 +2775,7 @@
         <v>42</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2753,7 +2786,7 @@
         <v>37</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2764,7 +2797,7 @@
         <v>38</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2775,7 +2808,7 @@
         <v>39</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2786,7 +2819,7 @@
         <v>40</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2797,7 +2830,7 @@
         <v>41</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2808,7 +2841,7 @@
         <v>43</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2819,7 +2852,7 @@
         <v>143</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2830,7 +2863,7 @@
         <v>48</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2874,7 +2907,7 @@
         <v>56</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2885,18 +2918,18 @@
         <v>55</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B29" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2907,7 +2940,7 @@
         <v>57</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="23" x14ac:dyDescent="0.25">
@@ -2918,7 +2951,7 @@
         <v>58</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2940,7 +2973,7 @@
         <v>60</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2951,7 +2984,7 @@
         <v>69</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -3000,24 +3033,24 @@
     </row>
     <row r="39" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B39" t="s">
         <v>85</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B40" t="s">
         <v>82</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -3116,7 +3149,7 @@
         <v>114</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="19" x14ac:dyDescent="0.2">
@@ -3160,40 +3193,40 @@
         <v>124</v>
       </c>
       <c r="C53" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B54" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C54" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B55" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C55" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B56" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C56" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -3209,24 +3242,24 @@
     </row>
     <row r="58" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B58" t="s">
         <v>333</v>
       </c>
-      <c r="B58" t="s">
-        <v>335</v>
-      </c>
       <c r="C58" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B59" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C59" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -3303,7 +3336,7 @@
         <v>147</v>
       </c>
       <c r="C66" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -3314,7 +3347,7 @@
         <v>149</v>
       </c>
       <c r="C67" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -3325,7 +3358,7 @@
         <v>152</v>
       </c>
       <c r="C68" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -3336,7 +3369,7 @@
         <v>154</v>
       </c>
       <c r="C69" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -3347,7 +3380,7 @@
         <v>155</v>
       </c>
       <c r="C70" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="23" x14ac:dyDescent="0.25">
@@ -3358,7 +3391,7 @@
         <v>157</v>
       </c>
       <c r="C71" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -3369,7 +3402,7 @@
         <v>159</v>
       </c>
       <c r="C72" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="23" x14ac:dyDescent="0.25">
@@ -3402,7 +3435,7 @@
         <v>168</v>
       </c>
       <c r="C75" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="19" x14ac:dyDescent="0.2">
@@ -3424,7 +3457,7 @@
         <v>173</v>
       </c>
       <c r="C77" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -3446,7 +3479,7 @@
         <v>178</v>
       </c>
       <c r="C79" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -3468,7 +3501,7 @@
         <v>183</v>
       </c>
       <c r="C81" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="23" x14ac:dyDescent="0.25">
@@ -3523,7 +3556,7 @@
         <v>197</v>
       </c>
       <c r="C86" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="52" x14ac:dyDescent="0.25">
@@ -3545,7 +3578,7 @@
         <v>203</v>
       </c>
       <c r="C88" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="23" x14ac:dyDescent="0.25">
@@ -3567,7 +3600,7 @@
         <v>207</v>
       </c>
       <c r="C90" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="23" x14ac:dyDescent="0.25">
@@ -3578,7 +3611,7 @@
         <v>213</v>
       </c>
       <c r="C91" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="23" x14ac:dyDescent="0.25">
@@ -3704,7 +3737,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B103" t="s">
         <v>241</v>
@@ -3754,7 +3787,7 @@
         <v>252</v>
       </c>
       <c r="C107" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="23" x14ac:dyDescent="0.25">
@@ -3853,18 +3886,18 @@
         <v>277</v>
       </c>
       <c r="C116" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B117" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="C117" t="s">
         <v>284</v>
-      </c>
-      <c r="B117" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="C117" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="30" x14ac:dyDescent="0.3">
@@ -3875,609 +3908,609 @@
         <v>279</v>
       </c>
       <c r="C118" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B119" s="21" t="s">
-        <v>281</v>
+        <v>646</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>661</v>
       </c>
       <c r="C119" t="s">
-        <v>283</v>
+        <v>662</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B120" s="21" t="s">
-        <v>287</v>
+        <v>659</v>
       </c>
       <c r="C120" t="s">
-        <v>288</v>
+        <v>660</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B121" s="21" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C121" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>292</v>
-      </c>
-      <c r="B122" t="s">
-        <v>291</v>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B122" s="21" t="s">
+        <v>287</v>
       </c>
       <c r="C122" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
+        <v>290</v>
+      </c>
+      <c r="B123" t="s">
+        <v>289</v>
+      </c>
+      <c r="C123" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>292</v>
+      </c>
+      <c r="B124" t="s">
         <v>294</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C124" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A125" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="C123" t="s">
+      <c r="B125" s="21" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A124" s="21" t="s">
+      <c r="C125" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>297</v>
+      </c>
+      <c r="B126" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="C126" t="s">
         <v>298</v>
-      </c>
-      <c r="B124" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="C124" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>299</v>
-      </c>
-      <c r="B125" s="21" t="s">
-        <v>299</v>
-      </c>
-      <c r="C125" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>304</v>
-      </c>
-      <c r="B126" t="s">
-        <v>301</v>
-      </c>
-      <c r="C126" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B127" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C127" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B128" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C128" t="s">
-        <v>490</v>
+        <v>301</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B129" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C129" t="s">
-        <v>310</v>
+        <v>487</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B130" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C130" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B131" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C131" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B132" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C132" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B133" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C133" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
+        <v>319</v>
+      </c>
+      <c r="B134" t="s">
+        <v>321</v>
+      </c>
+      <c r="C134" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>335</v>
+      </c>
+      <c r="B135" t="s">
+        <v>336</v>
+      </c>
+      <c r="C135" t="s">
         <v>337</v>
       </c>
-      <c r="B134" t="s">
+    </row>
+    <row r="136" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>339</v>
+      </c>
+      <c r="B136" s="19" t="s">
         <v>338</v>
       </c>
-      <c r="C134" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
+      <c r="C136" s="19" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>340</v>
+      </c>
+      <c r="B137" s="19" t="s">
         <v>341</v>
       </c>
-      <c r="B135" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="C135" s="19" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>342</v>
-      </c>
-      <c r="B136" s="19" t="s">
-        <v>343</v>
-      </c>
-      <c r="C136" s="19" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>360</v>
-      </c>
-      <c r="B137" t="s">
-        <v>344</v>
-      </c>
-      <c r="C137" t="s">
-        <v>345</v>
+      <c r="C137" s="19" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B138" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C138" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B139" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C139" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="B140" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C140" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B141" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C141" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B142" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C142" t="s">
-        <v>489</v>
+        <v>353</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B143" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C143" t="s">
-        <v>359</v>
+        <v>486</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B144" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="C144" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
+        <v>365</v>
+      </c>
+      <c r="B145" t="s">
+        <v>367</v>
+      </c>
+      <c r="C145" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>366</v>
+      </c>
+      <c r="B146" t="s">
         <v>368</v>
       </c>
-      <c r="B145" t="s">
+      <c r="C146" t="s">
         <v>370</v>
       </c>
-      <c r="C145" t="s">
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="B147" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="C147" s="12" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A148" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="B148" s="21" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="B146" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="C146" s="12" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A147" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="B147" s="21" t="s">
-        <v>374</v>
-      </c>
-      <c r="C147" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>377</v>
-      </c>
-      <c r="B148" t="s">
-        <v>376</v>
-      </c>
       <c r="C148" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="B149" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="C149" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>382</v>
       </c>
-      <c r="B150" s="19" t="s">
+      <c r="B150" t="s">
+        <v>383</v>
+      </c>
+      <c r="C150" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>380</v>
+      </c>
+      <c r="B151" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="C151" s="19" t="s">
         <v>381</v>
-      </c>
-      <c r="C150" s="19" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>388</v>
-      </c>
-      <c r="B151" t="s">
-        <v>387</v>
-      </c>
-      <c r="C151" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B152" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C152" t="s">
-        <v>394</v>
+        <v>491</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B153" t="s">
+        <v>388</v>
+      </c>
+      <c r="C153" t="s">
         <v>392</v>
-      </c>
-      <c r="C153" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
+        <v>389</v>
+      </c>
+      <c r="B154" t="s">
+        <v>390</v>
+      </c>
+      <c r="C154" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>394</v>
+      </c>
+      <c r="B155" t="s">
+        <v>393</v>
+      </c>
+      <c r="C155" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>398</v>
+      </c>
+      <c r="B156" s="19" t="s">
         <v>396</v>
       </c>
-      <c r="B154" t="s">
-        <v>395</v>
-      </c>
-      <c r="C154" t="s">
+      <c r="C156" s="19" t="s">
         <v>397</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>400</v>
-      </c>
-      <c r="B155" s="19" t="s">
-        <v>398</v>
-      </c>
-      <c r="C155" s="19" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>403</v>
-      </c>
-      <c r="B156" t="s">
-        <v>401</v>
-      </c>
-      <c r="C156" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B157" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C157" t="s">
-        <v>485</v>
+        <v>400</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B158" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C158" t="s">
-        <v>407</v>
+        <v>482</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B159" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C159" t="s">
-        <v>504</v>
+        <v>405</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B160" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C160" t="s">
-        <v>413</v>
+        <v>499</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B161" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C161" t="s">
-        <v>486</v>
+        <v>649</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B162" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C162" t="s">
-        <v>418</v>
+        <v>483</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B163" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C163" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B164" t="s">
+        <v>416</v>
+      </c>
+      <c r="C164" t="s">
         <v>420</v>
-      </c>
-      <c r="C164" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B165" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C165" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B166" t="s">
-        <v>506</v>
+        <v>421</v>
       </c>
       <c r="C166" t="s">
-        <v>505</v>
+        <v>484</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B167" t="s">
-        <v>427</v>
+        <v>501</v>
       </c>
       <c r="C167" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B168" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C168" t="s">
-        <v>430</v>
+        <v>485</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="B169" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="C169" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
+        <v>432</v>
+      </c>
+      <c r="B170" t="s">
+        <v>431</v>
+      </c>
+      <c r="C170" t="s">
         <v>433</v>
-      </c>
-      <c r="B170" t="s">
-        <v>432</v>
-      </c>
-      <c r="C170" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="B171" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="C171" t="s">
-        <v>441</v>
+        <v>651</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B172" t="s">
+        <v>434</v>
+      </c>
+      <c r="C172" t="s">
         <v>438</v>
-      </c>
-      <c r="C172" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B173" t="s">
-        <v>491</v>
+        <v>435</v>
       </c>
       <c r="C173" t="s">
         <v>492</v>
@@ -4485,593 +4518,637 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B174" t="s">
-        <v>443</v>
+        <v>488</v>
       </c>
       <c r="C174" t="s">
-        <v>494</v>
+        <v>652</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B175" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C175" t="s">
-        <v>495</v>
+        <v>650</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>511</v>
+        <v>443</v>
       </c>
       <c r="B176" t="s">
-        <v>517</v>
-      </c>
-      <c r="C176" s="24" t="s">
-        <v>510</v>
+        <v>442</v>
+      </c>
+      <c r="C176" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="B177" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="C177" s="24" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="B178" t="s">
-        <v>516</v>
-      </c>
-      <c r="C178" t="s">
-        <v>515</v>
+        <v>512</v>
+      </c>
+      <c r="C178" s="24" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>521</v>
-      </c>
-      <c r="B179" s="24" t="s">
-        <v>520</v>
-      </c>
-      <c r="C179" s="24" t="s">
-        <v>519</v>
+        <v>508</v>
+      </c>
+      <c r="B179" t="s">
+        <v>510</v>
+      </c>
+      <c r="C179" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="B180" s="24" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="C180" s="24" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>525</v>
-      </c>
-      <c r="B181" t="s">
-        <v>526</v>
-      </c>
-      <c r="C181" s="20" t="s">
-        <v>527</v>
+        <v>518</v>
+      </c>
+      <c r="B181" s="24" t="s">
+        <v>516</v>
+      </c>
+      <c r="C181" s="24" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="B182" t="s">
-        <v>529</v>
-      </c>
-      <c r="C182" t="s">
-        <v>530</v>
+        <v>520</v>
+      </c>
+      <c r="C182" s="20" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="B183" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="C183" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="B184" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="C184" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="B185" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="C185" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="B186" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="C186" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
+        <v>534</v>
+      </c>
+      <c r="B187" t="s">
+        <v>535</v>
+      </c>
+      <c r="C187" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>537</v>
+      </c>
+      <c r="B188" t="s">
+        <v>538</v>
+      </c>
+      <c r="C188" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>542</v>
+      </c>
+      <c r="B189" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="C189" t="s">
         <v>543</v>
       </c>
-      <c r="B187" t="s">
+    </row>
+    <row r="190" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>546</v>
+      </c>
+      <c r="B190" s="26" t="s">
+        <v>547</v>
+      </c>
+      <c r="C190" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
         <v>544</v>
       </c>
-      <c r="C187" t="s">
+      <c r="B191" s="19" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
+      <c r="C191" s="19" t="str">
+        <f>_xlfn.TRANSLATE(B191)</f>
+        <v>Translation of points into profile per category: the number of points to be obtained above the minimum number of points is split into five equal parts. The number of points obtained falls into one of those five areas, which correspond to a profile.</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>550</v>
+      </c>
+      <c r="B192" s="19" t="s">
         <v>548</v>
       </c>
-      <c r="B188" s="25" t="s">
-        <v>547</v>
-      </c>
-      <c r="C188" t="s">
+      <c r="C192" s="19" t="s">
         <v>549</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>552</v>
-      </c>
-      <c r="B189" s="26" t="s">
-        <v>553</v>
-      </c>
-      <c r="C189" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
-        <v>550</v>
-      </c>
-      <c r="B190" s="19" t="s">
-        <v>551</v>
-      </c>
-      <c r="C190" s="19" t="str">
-        <f>_xlfn.TRANSLATE(B190)</f>
-        <v>Translation of points into profile per category: the number of points to be obtained above the minimum number of points is split into five equal parts. The number of points obtained falls into one of those five areas, which correspond to a profile.</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="136" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
-        <v>556</v>
-      </c>
-      <c r="B191" s="19" t="s">
-        <v>554</v>
-      </c>
-      <c r="C191" s="19" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>559</v>
-      </c>
-      <c r="B192" t="s">
-        <v>559</v>
-      </c>
-      <c r="C192" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="B193" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="C193" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="B194" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="C194" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="B195" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="C195" t="s">
-        <v>578</v>
+        <v>559</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
+        <v>561</v>
+      </c>
+      <c r="B196" t="s">
+        <v>560</v>
+      </c>
+      <c r="C196" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>562</v>
+      </c>
+      <c r="B197" t="s">
+        <v>570</v>
+      </c>
+      <c r="C197" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A198" s="21" t="s">
+        <v>565</v>
+      </c>
+      <c r="B198" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C198" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>566</v>
+      </c>
+      <c r="B199" t="s">
+        <v>156</v>
+      </c>
+      <c r="C199" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A200" s="21" t="s">
+        <v>567</v>
+      </c>
+      <c r="B200" t="s">
         <v>568</v>
       </c>
-      <c r="B196" t="s">
-        <v>576</v>
-      </c>
-      <c r="C196" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A197" s="21" t="s">
-        <v>571</v>
-      </c>
-      <c r="B197" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="C197" t="s">
+      <c r="C200" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>572</v>
-      </c>
-      <c r="B198" t="s">
-        <v>156</v>
-      </c>
-      <c r="C198" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A199" s="21" t="s">
+    <row r="201" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A201" s="27" t="s">
         <v>573</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B201" t="s">
         <v>574</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C201" t="s">
         <v>575</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A200" s="27" t="s">
-        <v>579</v>
-      </c>
-      <c r="B200" t="s">
-        <v>580</v>
-      </c>
-      <c r="C200" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
-        <v>582</v>
-      </c>
-      <c r="B201" t="s">
-        <v>583</v>
-      </c>
-      <c r="C201" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="B202" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="C202" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="B203" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="C203" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="B204" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="C204" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="B205" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="C205" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>597</v>
-      </c>
-      <c r="B206" s="21" t="s">
-        <v>596</v>
-      </c>
-      <c r="C206" t="str">
-        <f>_xlfn.TRANSLATE(B206)</f>
-        <v>Profile based on investment objective</v>
+        <v>588</v>
+      </c>
+      <c r="B206" t="s">
+        <v>587</v>
+      </c>
+      <c r="C206" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="B207" s="21" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="C207" t="str">
         <f>_xlfn.TRANSLATE(B207)</f>
-        <v>Profile based on financial situation</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+        <v>Profile based on investment objective</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>601</v>
-      </c>
-      <c r="B208" t="s">
-        <v>600</v>
+        <v>592</v>
+      </c>
+      <c r="B208" s="21" t="s">
+        <v>645</v>
       </c>
       <c r="C208" t="str">
         <f>_xlfn.TRANSLATE(B208)</f>
-        <v>Profile based on knowledge and experience</v>
+        <v>Profile based on financial situation</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="B209" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="C209" t="str">
         <f>_xlfn.TRANSLATE(B209)</f>
-        <v>Profile based on risk appetite</v>
+        <v>Profile based on knowledge and experience</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="B210" t="s">
-        <v>604</v>
-      </c>
-      <c r="C210" t="s">
-        <v>615</v>
+        <v>595</v>
+      </c>
+      <c r="C210" t="str">
+        <f>_xlfn.TRANSLATE(B210)</f>
+        <v>Profile based on risk appetite</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="B211" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="C211" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="B212" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="C212" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="B213" t="s">
+        <v>599</v>
+      </c>
+      <c r="C213" t="s">
         <v>607</v>
-      </c>
-      <c r="C213" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="B214" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C214" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
       <c r="B215" t="s">
-        <v>619</v>
-      </c>
-      <c r="C215" t="str">
-        <f>_xlfn.TRANSLATE(B215)</f>
-        <v>Preliminary conclusion based on your investment objective, financial situation, risk appetite and visual choices together</v>
+        <v>601</v>
+      </c>
+      <c r="C215" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="B216" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="C216" t="str">
         <f>_xlfn.TRANSLATE(B216)</f>
-        <v>Explanation of any other matters</v>
+        <v>Preliminary conclusion based on your investment objective, financial situation, risk appetite and visual choices together</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="B217" t="s">
-        <v>623</v>
-      </c>
-      <c r="C217" t="s">
-        <v>631</v>
+        <v>614</v>
+      </c>
+      <c r="C217" t="str">
+        <f>_xlfn.TRANSLATE(B217)</f>
+        <v>Explanation of any other matters</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="B218" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="C218" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="B219" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C219" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>633</v>
+        <v>618</v>
       </c>
       <c r="B220" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="C220" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="B221" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="C221" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="B222" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="C222" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="B223" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="C223" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="B224" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="C224" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="B225" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="C225" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="B226" t="s">
-        <v>650</v>
-      </c>
-      <c r="C226" t="str">
-        <f>_xlfn.TRANSLATE(B226)</f>
+        <v>641</v>
+      </c>
+      <c r="C226" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>644</v>
+      </c>
+      <c r="B227" t="s">
+        <v>643</v>
+      </c>
+      <c r="C227" t="str">
+        <f>_xlfn.TRANSLATE(B227)</f>
         <v>You can send this to your asset manager.</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>647</v>
+      </c>
+      <c r="B228" t="s">
+        <v>647</v>
+      </c>
+      <c r="C228" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>655</v>
+      </c>
+      <c r="B229" t="s">
+        <v>653</v>
+      </c>
+      <c r="C229" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>656</v>
+      </c>
+      <c r="B230" t="s">
+        <v>657</v>
+      </c>
+      <c r="C230" t="s">
+        <v>658</v>
       </c>
     </row>
   </sheetData>
@@ -5087,9 +5164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F8A25A-78BB-2147-B2E6-F70CDBA64B0B}">
   <dimension ref="A1:C231"/>
   <sheetViews>
-    <sheetView topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="A154" sqref="A154"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5100,1821 +5175,694 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>225</v>
-      </c>
+      <c r="A1" s="10"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>563</v>
-      </c>
-      <c r="B2" s="14" t="b">
-        <f>A2=A1</f>
-        <v>0</v>
-      </c>
+      <c r="B2" s="14"/>
       <c r="C2" s="16"/>
     </row>
     <row r="3" spans="1:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B3" s="14" t="b">
-        <f t="shared" ref="B3:B66" si="0">A3=A2</f>
-        <v>0</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="14"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>368</v>
-      </c>
-      <c r="B4" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B4" s="14"/>
     </row>
     <row r="5" spans="1:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="B5" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="16"/>
     </row>
     <row r="6" spans="1:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="B6" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="14"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>389</v>
-      </c>
-      <c r="B7" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B7" s="14"/>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A8" s="9"/>
+      <c r="B8" s="14"/>
     </row>
     <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="A9" s="21"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="16"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B10" s="14"/>
       <c r="C10" s="16"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B11" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B11" s="14"/>
       <c r="C11" s="16"/>
     </row>
     <row r="12" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B12" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="16"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>139</v>
-      </c>
-      <c r="B13" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B13" s="14"/>
       <c r="C13" s="16"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>532</v>
-      </c>
-      <c r="B14" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B14" s="14"/>
       <c r="C14" s="17"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>164</v>
-      </c>
-      <c r="B15" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B15" s="14"/>
       <c r="C15" s="17"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>126</v>
-      </c>
-      <c r="B16" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B16" s="14"/>
       <c r="C16" s="17"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>412</v>
-      </c>
-      <c r="B17" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B17" s="14"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B18" s="14"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B19" s="14"/>
       <c r="C19" s="15"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B20" s="14"/>
       <c r="C20" s="16"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>559</v>
-      </c>
-      <c r="B21" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B21" s="14"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>525</v>
-      </c>
-      <c r="B22" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B22" s="14"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>417</v>
-      </c>
-      <c r="B23" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B23" s="14"/>
       <c r="C23" s="16"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B24" s="14"/>
       <c r="C24" s="16"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>410</v>
-      </c>
-      <c r="B25" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B25" s="14"/>
       <c r="C25" s="16"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>422</v>
-      </c>
-      <c r="B26" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B26" s="14"/>
       <c r="C26" s="16"/>
     </row>
     <row r="27" spans="1:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B27" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A27" s="10"/>
+      <c r="B27" s="14"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>511</v>
-      </c>
-      <c r="B28" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B28" s="14"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>514</v>
-      </c>
-      <c r="B29" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B29" s="14"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B30" s="14"/>
       <c r="C30" s="16"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B31" s="14"/>
       <c r="C31" s="13"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>513</v>
-      </c>
-      <c r="B32" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B32" s="14"/>
       <c r="C32" s="16"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B33" s="14"/>
       <c r="C33" s="16"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B34" s="14"/>
       <c r="C34" s="13"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>552</v>
-      </c>
-      <c r="B35" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B35" s="14"/>
       <c r="C35" s="16"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>446</v>
-      </c>
-      <c r="B36" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B36" s="14"/>
       <c r="C36" s="17"/>
     </row>
     <row r="37" spans="1:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="B37" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A37" s="3"/>
+      <c r="B37" s="14"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>377</v>
-      </c>
-      <c r="B38" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B38" s="14"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>382</v>
-      </c>
-      <c r="B39" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B39" s="14"/>
     </row>
     <row r="40" spans="1:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B40" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A40" s="10"/>
+      <c r="B40" s="14"/>
     </row>
     <row r="41" spans="1:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="B41" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A41" s="3"/>
+      <c r="B41" s="14"/>
     </row>
     <row r="42" spans="1:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="B42" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A42" s="10"/>
+      <c r="B42" s="14"/>
       <c r="C42" s="16"/>
     </row>
     <row r="43" spans="1:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B43" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A43" s="3"/>
+      <c r="B43" s="14"/>
       <c r="C43" s="16"/>
     </row>
     <row r="44" spans="1:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="B44" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A44" s="3"/>
+      <c r="B44" s="14"/>
       <c r="C44" s="16"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>87</v>
-      </c>
-      <c r="B45" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B45" s="14"/>
     </row>
     <row r="46" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A46" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="B46" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A46" s="21"/>
+      <c r="B46" s="14"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>23</v>
-      </c>
-      <c r="B47" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B47" s="14"/>
       <c r="C47" s="17"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>32</v>
-      </c>
-      <c r="B48" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B48" s="14"/>
     </row>
     <row r="49" spans="1:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="B49" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A49" s="3"/>
+      <c r="B49" s="14"/>
     </row>
     <row r="50" spans="1:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="B50" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A50" s="10"/>
+      <c r="B50" s="14"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>123</v>
-      </c>
-      <c r="B51" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B51" s="14"/>
       <c r="C51" s="16"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>316</v>
-      </c>
-      <c r="B52" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B52" s="14"/>
       <c r="C52" s="16"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>146</v>
-      </c>
-      <c r="B53" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B53" s="14"/>
     </row>
     <row r="54" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A54" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="B54" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A54" s="21"/>
+      <c r="B54" s="14"/>
     </row>
     <row r="55" spans="1:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="B55" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A55" s="10"/>
+      <c r="B55" s="14"/>
     </row>
     <row r="56" spans="1:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="B56" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A56" s="10"/>
+      <c r="B56" s="14"/>
       <c r="C56" s="16"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="B57" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A57" s="20"/>
+      <c r="B57" s="14"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="B58" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A58" s="20"/>
+      <c r="B58" s="14"/>
     </row>
     <row r="59" spans="1:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B59" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A59" s="10"/>
+      <c r="B59" s="14"/>
       <c r="C59" s="13"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>86</v>
-      </c>
-      <c r="B60" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B60" s="14"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>77</v>
-      </c>
-      <c r="B61" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B61" s="14"/>
       <c r="C61" s="13"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>70</v>
-      </c>
-      <c r="B62" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B62" s="14"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>78</v>
-      </c>
-      <c r="B63" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B63" s="14"/>
       <c r="C63" s="16"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>405</v>
-      </c>
-      <c r="B64" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B64" s="14"/>
       <c r="C64" s="18"/>
     </row>
     <row r="65" spans="1:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="B65" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A65" s="3"/>
+      <c r="B65" s="14"/>
       <c r="C65" s="16"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>433</v>
-      </c>
-      <c r="B66" s="14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B66" s="14"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>363</v>
-      </c>
-      <c r="B67" s="14" t="b">
-        <f t="shared" ref="B67:B130" si="1">A67=A66</f>
-        <v>0</v>
-      </c>
+      <c r="B67" s="14"/>
     </row>
     <row r="68" spans="1:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="A68" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="B68" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="A68" s="10"/>
+      <c r="B68" s="14"/>
       <c r="C68" s="16"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>171</v>
-      </c>
-      <c r="B69" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="B69" s="14"/>
       <c r="C69" s="16"/>
     </row>
     <row r="70" spans="1:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="A70" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="B70" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="A70" s="10"/>
+      <c r="B70" s="14"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>104</v>
-      </c>
-      <c r="B71" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="B71" s="14"/>
       <c r="C71" s="13"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>388</v>
-      </c>
-      <c r="B72" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="B72" s="14"/>
       <c r="C72" s="16"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>415</v>
-      </c>
-      <c r="B73" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="B73" s="14"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>299</v>
-      </c>
-      <c r="B74" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="B74" s="14"/>
     </row>
     <row r="75" spans="1:3" ht="23" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="B75" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="A75" s="3"/>
+      <c r="B75" s="14"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>11</v>
-      </c>
-      <c r="B76" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="B76" s="14"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>64</v>
-      </c>
-      <c r="B77" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="B77" s="14"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>61</v>
-      </c>
-      <c r="B78" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="B78" s="14"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>62</v>
-      </c>
-      <c r="B79" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="B79" s="14"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>63</v>
-      </c>
-      <c r="B80" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="B80" s="14"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>12</v>
-      </c>
-      <c r="B81" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="B81" s="14"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>30</v>
-      </c>
-      <c r="B82" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="B82" s="14"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>71</v>
-      </c>
-      <c r="B83" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="B83" s="14"/>
     </row>
     <row r="84" spans="1:2" ht="23" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B84" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="A84" s="3"/>
+      <c r="B84" s="14"/>
     </row>
     <row r="85" spans="1:2" ht="23" x14ac:dyDescent="0.25">
-      <c r="A85" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="B85" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="A85" s="10"/>
+      <c r="B85" s="14"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>182</v>
-      </c>
-      <c r="B86" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="B86" s="14"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>292</v>
-      </c>
-      <c r="B87" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="B87" s="14"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>304</v>
-      </c>
-      <c r="B88" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="B88" s="14"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>294</v>
-      </c>
-      <c r="B89" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="B89" s="14"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>305</v>
-      </c>
-      <c r="B90" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="B90" s="14"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>238</v>
-      </c>
-      <c r="B91" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="B91" s="14"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>125</v>
-      </c>
-      <c r="B92" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="B92" s="14"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>442</v>
-      </c>
-      <c r="B93" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="B93" s="14"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>153</v>
-      </c>
-      <c r="B94" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="B94" s="14"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>567</v>
-      </c>
-      <c r="B95" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="B95" s="14"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>403</v>
-      </c>
-      <c r="B96" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="B96" s="14"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>317</v>
-      </c>
-      <c r="B97" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="B97" s="14"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>0</v>
-      </c>
-      <c r="B98" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="B98" s="14"/>
     </row>
     <row r="99" spans="1:2" ht="23" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="B99" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="A99" s="3"/>
+      <c r="B99" s="14"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>135</v>
-      </c>
-      <c r="B100" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="B100" s="14"/>
     </row>
     <row r="101" spans="1:2" ht="23" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="B101" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="A101" s="3"/>
+      <c r="B101" s="14"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>96</v>
-      </c>
-      <c r="B102" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="B102" s="14"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>29</v>
-      </c>
-      <c r="B103" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="B103" s="14"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>115</v>
-      </c>
-      <c r="B104" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="B104" s="14"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>131</v>
-      </c>
-      <c r="B105" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="B105" s="14"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>379</v>
-      </c>
-      <c r="B106" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="B106" s="14"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>118</v>
-      </c>
-      <c r="B107" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="B107" s="14"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>72</v>
-      </c>
-      <c r="B108" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="B108" s="14"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>175</v>
-      </c>
-      <c r="B109" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="B109" s="14"/>
     </row>
     <row r="110" spans="1:2" ht="23" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="B110" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="A110" s="3"/>
+      <c r="B110" s="14"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>428</v>
-      </c>
-      <c r="B111" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="B111" s="14"/>
     </row>
     <row r="112" spans="1:2" ht="23" x14ac:dyDescent="0.25">
-      <c r="A112" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="B112" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="A112" s="10"/>
+      <c r="B112" s="14"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>321</v>
-      </c>
-      <c r="B113" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="B113" s="14"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>421</v>
-      </c>
-      <c r="B114" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="B114" s="14"/>
     </row>
     <row r="115" spans="1:2" ht="23" x14ac:dyDescent="0.25">
-      <c r="A115" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="B115" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="A115" s="10"/>
+      <c r="B115" s="14"/>
     </row>
     <row r="116" spans="1:2" ht="23" x14ac:dyDescent="0.25">
-      <c r="A116" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="B116" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="A116" s="10"/>
+      <c r="B116" s="14"/>
     </row>
     <row r="117" spans="1:2" ht="23" x14ac:dyDescent="0.25">
-      <c r="A117" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="B117" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="A117" s="10"/>
+      <c r="B117" s="14"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>36</v>
-      </c>
-      <c r="B118" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="B118" s="14"/>
     </row>
     <row r="119" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A119" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="B119" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="A119" s="12"/>
+      <c r="B119" s="14"/>
     </row>
     <row r="120" spans="1:2" ht="23" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="B120" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="A120" s="3"/>
+      <c r="B120" s="14"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>431</v>
-      </c>
-      <c r="B121" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="B121" s="14"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>426</v>
-      </c>
-      <c r="B122" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="B122" s="14"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>533</v>
-      </c>
-      <c r="B123" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="B123" s="14"/>
     </row>
     <row r="124" spans="1:2" ht="23" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B124" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="A124" s="3"/>
+      <c r="B124" s="14"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>337</v>
-      </c>
-      <c r="B125" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="B125" s="14"/>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>357</v>
-      </c>
-      <c r="B126" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="B126" s="14"/>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>352</v>
-      </c>
-      <c r="B127" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="B127" s="14"/>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>362</v>
-      </c>
-      <c r="B128" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="B128" s="14"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>354</v>
-      </c>
-      <c r="B129" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="B129" s="14"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>361</v>
-      </c>
-      <c r="B130" s="14" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="B130" s="14"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>360</v>
-      </c>
-      <c r="B131" s="14" t="b">
-        <f t="shared" ref="B131:B194" si="2">A131=A130</f>
-        <v>0</v>
-      </c>
+      <c r="B131" s="14"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>342</v>
-      </c>
-      <c r="B132" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B132" s="14"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>341</v>
-      </c>
-      <c r="B133" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B133" s="14"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>31</v>
-      </c>
-      <c r="B134" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B134" s="14"/>
     </row>
     <row r="135" spans="1:2" ht="23" x14ac:dyDescent="0.25">
-      <c r="A135" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="B135" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="A135" s="3"/>
+      <c r="B135" s="14"/>
     </row>
     <row r="136" spans="1:2" ht="23" x14ac:dyDescent="0.25">
-      <c r="A136" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="B136" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="A136" s="10"/>
+      <c r="B136" s="14"/>
     </row>
     <row r="137" spans="1:2" ht="23" x14ac:dyDescent="0.25">
-      <c r="A137" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="B137" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="A137" s="10"/>
+      <c r="B137" s="14"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>540</v>
-      </c>
-      <c r="B138" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B138" s="14"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>150</v>
-      </c>
-      <c r="B139" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B139" s="14"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>435</v>
-      </c>
-      <c r="B140" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B140" s="14"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>561</v>
-      </c>
-      <c r="B141" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B141" s="14"/>
     </row>
     <row r="142" spans="1:2" ht="23" x14ac:dyDescent="0.25">
-      <c r="A142" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="B142" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="A142" s="3"/>
+      <c r="B142" s="14"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>384</v>
-      </c>
-      <c r="B143" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B143" s="14"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>312</v>
-      </c>
-      <c r="B144" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B144" s="14"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>528</v>
-      </c>
-      <c r="B145" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B145" s="14"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>307</v>
-      </c>
-      <c r="B146" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B146" s="14"/>
     </row>
     <row r="147" spans="1:2" ht="23" x14ac:dyDescent="0.25">
-      <c r="A147" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="B147" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="A147" s="3"/>
+      <c r="B147" s="14"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>311</v>
-      </c>
-      <c r="B148" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B148" s="14"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>440</v>
-      </c>
-      <c r="B149" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B149" s="14"/>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>439</v>
-      </c>
-      <c r="B150" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B150" s="14"/>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>548</v>
-      </c>
-      <c r="B151" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B151" s="14"/>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>160</v>
-      </c>
-      <c r="B152" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B152" s="14"/>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>156</v>
-      </c>
-      <c r="B153" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B153" s="14"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>156</v>
-      </c>
-      <c r="B154" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
+      <c r="B154" s="14"/>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>524</v>
-      </c>
-      <c r="B155" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B155" s="14"/>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>35</v>
-      </c>
-      <c r="B156" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B156" s="14"/>
     </row>
     <row r="157" spans="1:2" ht="23" x14ac:dyDescent="0.25">
-      <c r="A157" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="B157" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="A157" s="10"/>
+      <c r="B157" s="14"/>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>543</v>
-      </c>
-      <c r="B158" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B158" s="14"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>151</v>
-      </c>
-      <c r="B159" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B159" s="14"/>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>391</v>
-      </c>
-      <c r="B160" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B160" s="14"/>
     </row>
     <row r="161" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A161" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="B161" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="A161" s="12"/>
+      <c r="B161" s="14"/>
     </row>
     <row r="162" spans="1:2" ht="23" x14ac:dyDescent="0.25">
-      <c r="A162" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="B162" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="A162" s="10"/>
+      <c r="B162" s="14"/>
     </row>
     <row r="163" spans="1:2" ht="23" x14ac:dyDescent="0.25">
-      <c r="A163" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="B163" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="A163" s="10"/>
+      <c r="B163" s="14"/>
     </row>
     <row r="164" spans="1:2" ht="23" x14ac:dyDescent="0.25">
-      <c r="A164" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="B164" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="A164" s="10"/>
+      <c r="B164" s="14"/>
     </row>
     <row r="165" spans="1:2" ht="23" x14ac:dyDescent="0.25">
-      <c r="A165" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B165" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="A165" s="10"/>
+      <c r="B165" s="14"/>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>396</v>
-      </c>
-      <c r="B166" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B166" s="14"/>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>409</v>
-      </c>
-      <c r="B167" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B167" s="14"/>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>20</v>
-      </c>
-      <c r="B168" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B168" s="14"/>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>6</v>
-      </c>
-      <c r="B169" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B169" s="14"/>
     </row>
     <row r="170" spans="1:2" ht="23" x14ac:dyDescent="0.25">
-      <c r="A170" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B170" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="A170" s="3"/>
+      <c r="B170" s="14"/>
     </row>
     <row r="171" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A171" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B171" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="A171" s="2"/>
+      <c r="B171" s="14"/>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>15</v>
-      </c>
-      <c r="B172" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B172" s="14"/>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>34</v>
-      </c>
-      <c r="B173" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B173" s="14"/>
     </row>
     <row r="174" spans="1:2" ht="23" x14ac:dyDescent="0.25">
-      <c r="A174" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="B174" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="A174" s="3"/>
+      <c r="B174" s="14"/>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>550</v>
-      </c>
-      <c r="B175" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B175" s="14"/>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>556</v>
-      </c>
-      <c r="B176" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B176" s="14"/>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>568</v>
-      </c>
-      <c r="B177" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B177" s="14"/>
     </row>
     <row r="178" spans="1:2" ht="23" x14ac:dyDescent="0.25">
-      <c r="A178" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="B178" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="A178" s="10"/>
+      <c r="B178" s="14"/>
     </row>
     <row r="179" spans="1:2" ht="23" x14ac:dyDescent="0.25">
-      <c r="A179" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="B179" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="A179" s="10"/>
+      <c r="B179" s="14"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>318</v>
-      </c>
-      <c r="B180" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B180" s="14"/>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>93</v>
-      </c>
-      <c r="B181" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B181" s="14"/>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>44</v>
-      </c>
-      <c r="B182" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B182" s="14"/>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>137</v>
-      </c>
-      <c r="B183" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B183" s="14"/>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>148</v>
-      </c>
-      <c r="B184" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B184" s="14"/>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>28</v>
-      </c>
-      <c r="B185" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B185" s="14"/>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
-        <v>537</v>
-      </c>
-      <c r="B186" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B186" s="14"/>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>400</v>
-      </c>
-      <c r="B187" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B187" s="14"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
-        <v>142</v>
-      </c>
-      <c r="B188" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B188" s="14"/>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
-        <v>367</v>
-      </c>
-      <c r="B189" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B189" s="14"/>
     </row>
     <row r="190" spans="1:2" ht="23" x14ac:dyDescent="0.25">
-      <c r="A190" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B190" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="A190" s="10"/>
+      <c r="B190" s="14"/>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
-        <v>18</v>
-      </c>
-      <c r="B191" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B191" s="14"/>
     </row>
     <row r="192" spans="1:2" ht="23" x14ac:dyDescent="0.25">
-      <c r="A192" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B192" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="A192" s="6"/>
+      <c r="B192" s="14"/>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
-        <v>521</v>
-      </c>
-      <c r="B193" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B193" s="14"/>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
-        <v>425</v>
-      </c>
-      <c r="B194" s="14" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="B194" s="14"/>
     </row>
     <row r="195" spans="1:2" ht="23" x14ac:dyDescent="0.25">
-      <c r="A195" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="B195" s="14" t="b">
-        <f t="shared" ref="B195:B198" si="3">A195=A194</f>
-        <v>0</v>
-      </c>
+      <c r="A195" s="3"/>
+      <c r="B195" s="14"/>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
-        <v>5</v>
-      </c>
-      <c r="B196" s="14" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="B196" s="14"/>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
-        <v>107</v>
-      </c>
-      <c r="B197" s="14" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="B197" s="14"/>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>444</v>
-      </c>
-      <c r="B198" s="14" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="B198" s="14"/>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B199" s="23"/>

--- a/translations/translations.xlsx
+++ b/translations/translations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/90320473a3d91f65/R Projects/Beleggersprofiel/shiny_vertaler/translations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pieter/Library/CloudStorage/OneDrive-Personal/R Projects/Beleggersprofiel/shiny_vertaler_ui/translations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="680" documentId="14_{95F18E7A-428B-7149-8369-8E45DCD25567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D91CFEED-8876-D54F-970B-51BB162655A1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBF0009-9EFD-FB42-B6D6-51FD8E35DECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2180" yWindow="1300" windowWidth="28060" windowHeight="17460" xr2:uid="{6F392907-AA0D-244D-BA14-28BCC8428C40}"/>
+    <workbookView xWindow="200" yWindow="860" windowWidth="28060" windowHeight="17460" xr2:uid="{6F392907-AA0D-244D-BA14-28BCC8428C40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -471,12 +471,6 @@
     <t>Ga terug</t>
   </si>
   <si>
-    <t>Ga terug naar Start (alles opnieuw invullen)</t>
-  </si>
-  <si>
-    <t>Go back to Start (fill in all again)</t>
-  </si>
-  <si>
     <t>ga_terug_naar_start</t>
   </si>
   <si>
@@ -963,9 +957,6 @@
     <t>rapport versturen</t>
   </si>
   <si>
-    <t>send report</t>
-  </si>
-  <si>
     <t>rapport_versturen</t>
   </si>
   <si>
@@ -1062,9 +1053,6 @@
     <t>private_beleggingen_zijn_heel_divers</t>
   </si>
   <si>
-    <t>Private beleggingen zijn heel divers. Ze kunnen onderdeel uitmaken van het risicodragende deel van de portefeuille, zoals &lt;em&gt;private equity&lt;/em&gt; maar ook van het risicomijdende deel, zoals &lt;em&gt;private debt&lt;/em&gt;. Andere voorbeelden van private beleggingen zijn investeringen in startende bedrijven, &lt;em&gt;venture capital&lt;/em&gt; en private vastgoedbeleggingen.</t>
-  </si>
-  <si>
     <t>Een voordeel van private beleggingen is het potentieel hogere rendement. Een ander voordeel is dat de risicospreiding van de portefeuille als geheel erdoor toeneemt.</t>
   </si>
   <si>
@@ -2022,10 +2010,22 @@
     <t>If you click on the button below, a report will be generated with the title 'Investor profile', followed by your name, and the time. The file will be sent to your email address(es). You can also save it on your computer, for example in  your 'Downloads' folder. From there, you can open it or move it to a convenient place on your computer. An overview of the results will also be sent to B.A. van Doorn.</t>
   </si>
   <si>
-    <t>Het maken en het versturen van het rapport duurt even. Als het rapport is gegenereerd heeft u de modelijkheid het op te slaan op uw computer.</t>
-  </si>
-  <si>
     <t>Creating and sending the report takes a while. Once the report is generated you can save it on your computer.</t>
+  </si>
+  <si>
+    <t>Private beleggingen zijn heel divers. Ze kunnen onderdeel uitmaken van het risicodragende deel van de portefeuille, zoals private equity maar ook van het risicomijdende deel, zoals private debt. Andere voorbeelden van private beleggingen zijn investeringen in startende bedrijven, venture capital en private vastgoedbeleggingen.</t>
+  </si>
+  <si>
+    <t>sending report</t>
+  </si>
+  <si>
+    <t>Het maken en het versturen van het rapport duurt even. Als het rapport is gegenereerd heeft u de mogelijkheid het op te slaan op uw computer.</t>
+  </si>
+  <si>
+    <t>Ga terug naar Start</t>
+  </si>
+  <si>
+    <t>Go back to Start</t>
   </si>
 </sst>
 </file>
@@ -2602,8 +2602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F664C5-EA11-7741-9542-632F88E8211B}">
   <dimension ref="A1:C230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="C119" sqref="C119"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2665,7 +2665,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2676,7 +2676,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.2">
@@ -2698,7 +2698,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2720,7 +2720,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="23" x14ac:dyDescent="0.25">
@@ -2731,7 +2731,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2742,7 +2742,7 @@
         <v>95</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2764,7 +2764,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2775,7 +2775,7 @@
         <v>42</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2786,7 +2786,7 @@
         <v>37</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2797,7 +2797,7 @@
         <v>38</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2808,7 +2808,7 @@
         <v>39</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2819,7 +2819,7 @@
         <v>40</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2830,7 +2830,7 @@
         <v>41</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2841,7 +2841,7 @@
         <v>43</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2852,7 +2852,7 @@
         <v>143</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2863,7 +2863,7 @@
         <v>48</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2907,7 +2907,7 @@
         <v>56</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2918,18 +2918,18 @@
         <v>55</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B29" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2940,7 +2940,7 @@
         <v>57</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="23" x14ac:dyDescent="0.25">
@@ -2951,7 +2951,7 @@
         <v>58</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2973,7 +2973,7 @@
         <v>60</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2984,7 +2984,7 @@
         <v>69</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -3039,7 +3039,7 @@
         <v>85</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -3050,7 +3050,7 @@
         <v>82</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -3149,7 +3149,7 @@
         <v>114</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="19" x14ac:dyDescent="0.2">
@@ -3193,40 +3193,40 @@
         <v>124</v>
       </c>
       <c r="C53" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B54" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C54" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B55" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C55" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B56" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C56" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -3242,24 +3242,24 @@
     </row>
     <row r="58" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B58" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C58" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B59" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C59" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -3314,1401 +3314,1401 @@
         <v>138</v>
       </c>
       <c r="C64" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B65" t="s">
-        <v>144</v>
+        <v>661</v>
       </c>
       <c r="C65" t="s">
-        <v>145</v>
+        <v>662</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B66" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C66" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B67" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C67" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B68" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C68" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B69" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C69" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B70" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C70" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C71" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B72" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C72" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B73" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C73" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B74" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C74" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C75" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C76" t="s">
         <v>170</v>
-      </c>
-      <c r="C76" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C77" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>173</v>
+      </c>
+      <c r="B78" t="s">
+        <v>174</v>
+      </c>
+      <c r="C78" t="s">
         <v>175</v>
-      </c>
-      <c r="B78" t="s">
-        <v>176</v>
-      </c>
-      <c r="C78" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B79" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C79" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B80" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C80" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C81" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C82" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A83" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B83" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="C83" t="s">
         <v>191</v>
-      </c>
-      <c r="C83" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C84" t="s">
         <v>190</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="C84" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B85" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C85" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B86" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C86" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="52" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B88" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C88" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B89" t="s">
+        <v>202</v>
+      </c>
+      <c r="C89" t="s">
         <v>204</v>
-      </c>
-      <c r="C89" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B90" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C90" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B91" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C91" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B92" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C92" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="B93" t="s">
+        <v>213</v>
+      </c>
+      <c r="C93" t="s">
         <v>214</v>
-      </c>
-      <c r="B93" t="s">
-        <v>215</v>
-      </c>
-      <c r="C93" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B94" t="s">
+        <v>215</v>
+      </c>
+      <c r="C94" t="s">
         <v>217</v>
-      </c>
-      <c r="C94" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B95" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C95" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B96" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C96" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B97" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C97" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B98" t="s">
+        <v>228</v>
+      </c>
+      <c r="C98" t="s">
         <v>229</v>
-      </c>
-      <c r="B98" t="s">
-        <v>230</v>
-      </c>
-      <c r="C98" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B99" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C99" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B100" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C100" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B101" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C101" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>236</v>
+      </c>
+      <c r="B102" t="s">
+        <v>237</v>
+      </c>
+      <c r="C102" t="s">
         <v>238</v>
-      </c>
-      <c r="B102" t="s">
-        <v>239</v>
-      </c>
-      <c r="C102" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B103" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C103" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B104" t="s">
+        <v>242</v>
+      </c>
+      <c r="C104" t="s">
         <v>243</v>
-      </c>
-      <c r="B104" t="s">
-        <v>244</v>
-      </c>
-      <c r="C104" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B105" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C105" s="20" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B106" t="s">
+        <v>247</v>
+      </c>
+      <c r="C106" t="s">
         <v>248</v>
-      </c>
-      <c r="B106" t="s">
-        <v>249</v>
-      </c>
-      <c r="C106" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B107" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C107" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B108" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C108" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="52" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B109" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="C109" t="s">
         <v>254</v>
-      </c>
-      <c r="B109" s="19" t="s">
-        <v>255</v>
-      </c>
-      <c r="C109" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B110" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="C110" t="s">
         <v>259</v>
-      </c>
-      <c r="C110" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B111" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C111" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C112" s="12" t="s">
         <v>265</v>
-      </c>
-      <c r="B112" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="C112" s="12" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B113" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="C113" t="s">
         <v>268</v>
-      </c>
-      <c r="C113" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C114" t="s">
         <v>271</v>
-      </c>
-      <c r="C114" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B115" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="C115" t="s">
         <v>274</v>
-      </c>
-      <c r="C115" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B116" s="21" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C116" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B117" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="C117" t="s">
         <v>282</v>
-      </c>
-      <c r="B117" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="C117" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B118" s="22" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C118" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C119" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B120" s="21" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C120" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B121" s="21" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C121" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B122" s="21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C122" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B123" t="s">
+        <v>287</v>
+      </c>
+      <c r="C123" t="s">
         <v>289</v>
-      </c>
-      <c r="C123" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>290</v>
+      </c>
+      <c r="B124" t="s">
         <v>292</v>
       </c>
-      <c r="B124" t="s">
-        <v>294</v>
-      </c>
       <c r="C124" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A125" s="21" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B125" s="21" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C125" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B126" s="21" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C126" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B127" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C127" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B128" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C128" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B129" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C129" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B130" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C130" t="s">
-        <v>308</v>
+        <v>659</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B131" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C131" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B132" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C132" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B133" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C133" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B134" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C134" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B135" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C135" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C136" s="19" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="85" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>341</v>
+        <v>658</v>
       </c>
       <c r="C137" s="19" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B138" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C138" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B139" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C139" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B140" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C140" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B141" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C141" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B142" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C142" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B143" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C143" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B144" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C144" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
+        <v>361</v>
+      </c>
+      <c r="B145" t="s">
+        <v>363</v>
+      </c>
+      <c r="C145" t="s">
         <v>365</v>
-      </c>
-      <c r="B145" t="s">
-        <v>367</v>
-      </c>
-      <c r="C145" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
+        <v>362</v>
+      </c>
+      <c r="B146" t="s">
+        <v>364</v>
+      </c>
+      <c r="C146" t="s">
         <v>366</v>
-      </c>
-      <c r="B146" t="s">
-        <v>368</v>
-      </c>
-      <c r="C146" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="12" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A148" s="21" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B148" s="21" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C148" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B149" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C149" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B150" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C150" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="119" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C151" s="19" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B152" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C152" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B153" t="s">
+        <v>384</v>
+      </c>
+      <c r="C153" t="s">
         <v>388</v>
-      </c>
-      <c r="C153" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B154" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C154" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B155" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C155" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B156" s="19" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C156" s="19" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B157" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C157" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B158" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C158" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B159" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C159" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B160" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C160" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B161" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C161" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B162" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C162" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B163" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C163" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B164" t="s">
+        <v>412</v>
+      </c>
+      <c r="C164" t="s">
         <v>416</v>
-      </c>
-      <c r="C164" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B165" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C165" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B166" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C166" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B167" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C167" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B168" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C168" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B169" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C169" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B170" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C170" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B171" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C171" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B172" t="s">
+        <v>430</v>
+      </c>
+      <c r="C172" t="s">
         <v>434</v>
-      </c>
-      <c r="C172" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B173" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C173" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B174" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C174" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B175" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C175" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B176" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C176" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B177" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C177" s="24" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B178" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C178" s="24" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B179" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C179" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B180" s="24" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C180" s="24" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B181" s="24" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C181" s="24" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B182" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C182" s="20" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B183" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C183" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
+        <v>522</v>
+      </c>
+      <c r="B184" t="s">
+        <v>521</v>
+      </c>
+      <c r="C184" t="s">
         <v>526</v>
-      </c>
-      <c r="B184" t="s">
-        <v>525</v>
-      </c>
-      <c r="C184" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B185" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C185" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B186" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C186" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B187" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C187" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B188" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C188" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B189" s="25" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C189" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B190" s="26" t="s">
+        <v>543</v>
+      </c>
+      <c r="C190" t="s">
         <v>547</v>
-      </c>
-      <c r="C190" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B191" s="19" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C191" s="19" t="str">
         <f>_xlfn.TRANSLATE(B191)</f>
@@ -4717,175 +4717,175 @@
     </row>
     <row r="192" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B192" s="19" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C192" s="19" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B193" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C193" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B194" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C194" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B195" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C195" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B196" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C196" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B197" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C197" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A198" s="21" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B198" s="21" t="s">
         <v>100</v>
       </c>
       <c r="C198" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B199" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C199" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A200" s="21" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B200" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C200" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A201" s="27" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B201" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C201" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B202" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C202" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B203" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C203" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B204" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C204" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B205" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C205" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B206" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C206" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B207" s="21" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C207" t="str">
         <f>_xlfn.TRANSLATE(B207)</f>
@@ -4894,10 +4894,10 @@
     </row>
     <row r="208" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B208" s="21" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="C208" t="str">
         <f>_xlfn.TRANSLATE(B208)</f>
@@ -4906,10 +4906,10 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B209" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C209" t="str">
         <f>_xlfn.TRANSLATE(B209)</f>
@@ -4918,10 +4918,10 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B210" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C210" t="str">
         <f>_xlfn.TRANSLATE(B210)</f>
@@ -4930,65 +4930,65 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B211" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C211" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B212" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C212" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B213" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C213" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B214" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C214" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B215" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C215" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B216" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="C216" t="str">
         <f>_xlfn.TRANSLATE(B216)</f>
@@ -4997,10 +4997,10 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B217" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="C217" t="str">
         <f>_xlfn.TRANSLATE(B217)</f>
@@ -5009,109 +5009,109 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B218" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C218" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B219" t="s">
+        <v>615</v>
+      </c>
+      <c r="C219" t="s">
         <v>619</v>
-      </c>
-      <c r="C219" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
+        <v>614</v>
+      </c>
+      <c r="B220" t="s">
+        <v>617</v>
+      </c>
+      <c r="C220" t="s">
         <v>618</v>
-      </c>
-      <c r="B220" t="s">
-        <v>621</v>
-      </c>
-      <c r="C220" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B221" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C221" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B222" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C222" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B223" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="C223" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B224" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C224" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B225" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="C225" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B226" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C226" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B227" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C227" t="str">
         <f>_xlfn.TRANSLATE(B227)</f>
@@ -5120,35 +5120,35 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B228" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C228" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B229" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C229" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B230" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="C230" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
   </sheetData>

--- a/translations/translations.xlsx
+++ b/translations/translations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pieter/Library/CloudStorage/OneDrive-Personal/R Projects/Beleggersprofiel/shiny_vertaler_ui/translations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/90320473a3d91f65/R Projects/Beleggersprofiel/shiny_vertaler/translations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBF0009-9EFD-FB42-B6D6-51FD8E35DECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{EEBF0009-9EFD-FB42-B6D6-51FD8E35DECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{732C99FC-FFAC-9541-8AFF-09DAE5A2F207}"/>
   <bookViews>
     <workbookView xWindow="200" yWindow="860" windowWidth="28060" windowHeight="17460" xr2:uid="{6F392907-AA0D-244D-BA14-28BCC8428C40}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="666">
   <si>
     <t>key</t>
   </si>
@@ -1554,21 +1554,12 @@
     <t>de_midden_illustratie</t>
   </si>
   <si>
-    <t>The illustration in the middle (the choice made on the previous page)</t>
-  </si>
-  <si>
-    <t>De illustratie in het midden (de keuze gemaakt op de vorige pagina)</t>
-  </si>
-  <si>
     <t>De illustratie links</t>
   </si>
   <si>
     <t>De illustratie rechts</t>
   </si>
   <si>
-    <t>Which figure appeals to you the most at first?</t>
-  </si>
-  <si>
     <t>Welke figuur spreekt u in eerste instantie het meest aan?</t>
   </si>
   <si>
@@ -2026,6 +2017,24 @@
   </si>
   <si>
     <t>Go back to Start</t>
+  </si>
+  <si>
+    <t>maak_keuze_links_of_rechts</t>
+  </si>
+  <si>
+    <t>Which graph appeals to you the most at first?</t>
+  </si>
+  <si>
+    <t>&lt;-- kies links of rechts --&gt;</t>
+  </si>
+  <si>
+    <t>&lt;-- choose left or right --&gt;</t>
+  </si>
+  <si>
+    <t>Ik blijf bij mijn keuze</t>
+  </si>
+  <si>
+    <t>I stay with my choice</t>
   </si>
 </sst>
 </file>
@@ -2600,10 +2609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F664C5-EA11-7741-9542-632F88E8211B}">
-  <dimension ref="A1:C230"/>
+  <dimension ref="A1:C231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="C179" sqref="C179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3322,10 +3331,10 @@
         <v>144</v>
       </c>
       <c r="B65" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C65" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -3435,7 +3444,7 @@
         <v>166</v>
       </c>
       <c r="C75" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="19" x14ac:dyDescent="0.2">
@@ -3908,18 +3917,18 @@
         <v>277</v>
       </c>
       <c r="C118" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C119" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="23" x14ac:dyDescent="0.25">
@@ -3927,10 +3936,10 @@
         <v>279</v>
       </c>
       <c r="B120" s="21" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C120" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="23" x14ac:dyDescent="0.25">
@@ -4040,7 +4049,7 @@
         <v>305</v>
       </c>
       <c r="C130" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -4114,7 +4123,7 @@
         <v>337</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C137" s="19" t="s">
         <v>477</v>
@@ -4381,7 +4390,7 @@
         <v>405</v>
       </c>
       <c r="C161" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
@@ -4491,7 +4500,7 @@
         <v>425</v>
       </c>
       <c r="C171" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
@@ -4524,7 +4533,7 @@
         <v>484</v>
       </c>
       <c r="C174" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
@@ -4535,7 +4544,7 @@
         <v>436</v>
       </c>
       <c r="C175" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
@@ -4554,7 +4563,7 @@
         <v>501</v>
       </c>
       <c r="B177" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C177" s="24" t="s">
         <v>500</v>
@@ -4565,7 +4574,7 @@
         <v>503</v>
       </c>
       <c r="B178" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C178" s="24" t="s">
         <v>502</v>
@@ -4576,139 +4585,139 @@
         <v>504</v>
       </c>
       <c r="B179" t="s">
-        <v>506</v>
+        <v>664</v>
       </c>
       <c r="C179" t="s">
-        <v>505</v>
+        <v>665</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B180" s="24" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C180" s="24" t="s">
-        <v>509</v>
+        <v>661</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B181" s="24" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C181" s="24" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B182" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C182" s="20" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B183" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C183" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B184" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C184" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B185" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C185" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B186" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C186" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B187" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C187" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B188" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C188" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B189" s="25" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C189" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="23" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B190" s="26" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C190" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B191" s="19" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C191" s="19" t="str">
         <f>_xlfn.TRANSLATE(B191)</f>
@@ -4717,175 +4726,175 @@
     </row>
     <row r="192" spans="1:3" ht="136" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B192" s="19" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C192" s="19" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B193" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C193" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B194" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C194" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B195" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C195" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B196" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C196" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B197" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C197" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A198" s="21" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B198" s="21" t="s">
         <v>100</v>
       </c>
       <c r="C198" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B199" t="s">
         <v>154</v>
       </c>
       <c r="C199" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A200" s="21" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B200" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C200" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A201" s="27" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B201" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C201" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B202" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C202" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B203" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C203" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B204" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C204" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B205" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C205" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B206" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C206" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B207" s="21" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C207" t="str">
         <f>_xlfn.TRANSLATE(B207)</f>
@@ -4894,10 +4903,10 @@
     </row>
     <row r="208" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B208" s="21" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C208" t="str">
         <f>_xlfn.TRANSLATE(B208)</f>
@@ -4906,10 +4915,10 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B209" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C209" t="str">
         <f>_xlfn.TRANSLATE(B209)</f>
@@ -4918,10 +4927,10 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B210" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C210" t="str">
         <f>_xlfn.TRANSLATE(B210)</f>
@@ -4930,65 +4939,65 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B211" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C211" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B212" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C212" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
+        <v>597</v>
+      </c>
+      <c r="B213" t="s">
+        <v>592</v>
+      </c>
+      <c r="C213" t="s">
         <v>600</v>
-      </c>
-      <c r="B213" t="s">
-        <v>595</v>
-      </c>
-      <c r="C213" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B214" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C214" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B215" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C215" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B216" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C216" t="str">
         <f>_xlfn.TRANSLATE(B216)</f>
@@ -4997,10 +5006,10 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B217" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C217" t="str">
         <f>_xlfn.TRANSLATE(B217)</f>
@@ -5009,109 +5018,109 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B218" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C218" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
+        <v>613</v>
+      </c>
+      <c r="B219" t="s">
+        <v>612</v>
+      </c>
+      <c r="C219" t="s">
         <v>616</v>
-      </c>
-      <c r="B219" t="s">
-        <v>615</v>
-      </c>
-      <c r="C219" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
+        <v>611</v>
+      </c>
+      <c r="B220" t="s">
         <v>614</v>
       </c>
-      <c r="B220" t="s">
-        <v>617</v>
-      </c>
       <c r="C220" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B221" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C221" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B222" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C222" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B223" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C223" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B224" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C224" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B225" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C225" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B226" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C226" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B227" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C227" t="str">
         <f>_xlfn.TRANSLATE(B227)</f>
@@ -5120,35 +5129,46 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B228" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C228" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B229" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C229" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B230" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C230" t="s">
-        <v>654</v>
+        <v>651</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>660</v>
+      </c>
+      <c r="B231" t="s">
+        <v>662</v>
+      </c>
+      <c r="C231" t="s">
+        <v>663</v>
       </c>
     </row>
   </sheetData>
